--- a/docs/Transaccionalidad.xlsx
+++ b/docs/Transaccionalidad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,462 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>Requerimiento 10</t>
   </si>
   <si>
-    <t>rest/usuarios/registrados/2/CC/boletas/multi?fecha=1491152400000&amp;idLugar=14&amp;idLocalidad=1&amp;cant=4</t>
-  </si>
-  <si>
-    <t>URL:</t>
-  </si>
-  <si>
-    <t>Descripcion:</t>
-  </si>
-  <si>
-    <t>Para este método se realiza la compra de multiples boletas en una funcion en especifico. Para ello, se verifica si hay boletas disponibles en la funcion, además se verifica si las sillas estan contiguas. De cumplirse lo anterior, se realiza la compra, de lo contrario no se realiza ninguna compra de boletas</t>
+    <t>REGISTRAR COMPRA MÚLTIPLE DE BOLETAS</t>
+  </si>
+  <si>
+    <t>Caso Exitoso</t>
+  </si>
+  <si>
+    <t>Caso Fallido</t>
+  </si>
+  <si>
+    <t>Para este método se realiza la compra de multiples boletas en una funcion en especifico. Para ello, se verifica si hay boletas disponibles en la funcion, además se verifica si las sillas estan contiguas.</t>
+  </si>
+  <si>
+    <t>No existe la función solicitada</t>
+  </si>
+  <si>
+    <t>No hay la cantidad de sillas contiguas disponibles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El usuario que hace la solicitud no es un </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usuario Registrado</t>
+    </r>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>REGISTRAR COMPRA DE UN ABONAMIENTO</t>
+  </si>
+  <si>
+    <t>Requerimiento 11</t>
+  </si>
+  <si>
+    <t>rest/abonos</t>
+  </si>
+  <si>
+    <t>Este requerimiento establece la compra de un Abono, siendo este un descuento de una boleta para las funciones y localidades que el usuario elija.</t>
+  </si>
+  <si>
+    <t>Las sillas quedan contiguas</t>
+  </si>
+  <si>
+    <t>Hay disponibilidad de la cantidad de sillas a reservar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El usuario que hace la solicitud es un </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usuario Registrado</t>
+    </r>
+  </si>
+  <si>
+    <t>Metodo</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Hay al menos una boleta disponible en las funciones elegidas</t>
+  </si>
+  <si>
+    <t>Se selecciona una función que no existe</t>
+  </si>
+  <si>
+    <t>Se selecciona una localidad que no esta ofrecida</t>
+  </si>
+  <si>
+    <t>El festival inicia en menos de 3 semanas en el momento de realizar la operación</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La compra la realiza un </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usuario Registrado</t>
+    </r>
+  </si>
+  <si>
+    <t>No quedan boletas disponibles en al menos alguna de las funciones elegidas</t>
+  </si>
+  <si>
+    <t>Requerimiento 12</t>
+  </si>
+  <si>
+    <t>DEVOLVER BOLETA</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Un usuario desea devolver una Boleta que ha comprado para una función</t>
+  </si>
+  <si>
+    <t>La operación se realiza con al menos 5 días previos a la función</t>
+  </si>
+  <si>
+    <t>La función inicia en menos de 5 días al momento de realizar la operación</t>
+  </si>
+  <si>
+    <t>El usuario no tiene una boleta para la función</t>
+  </si>
+  <si>
+    <t>Requerimiento 13</t>
+  </si>
+  <si>
+    <t>DEVOLVER ABONAMIENTO</t>
+  </si>
+  <si>
+    <t>Un usuario solicita devolver un Abono que previamente ha comprado</t>
+  </si>
+  <si>
+    <t>La operación se realiza al menos 3 semanas antes del inicio del festival</t>
+  </si>
+  <si>
+    <t>El Usuario que hace la solicitud es dueño del Abono</t>
+  </si>
+  <si>
+    <t>El Usuario no tiene un Abono para el festival</t>
+  </si>
+  <si>
+    <t>CANCELAR UNA FUNCIÓN</t>
+  </si>
+  <si>
+    <t>Requerimiento 14</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Un usuario administrador desea cancelar una función de un espectaculo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La operación la realiza un </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usuario Administrador</t>
+    </r>
+  </si>
+  <si>
+    <t>La función no ha terminado</t>
+  </si>
+  <si>
+    <t>La función ha terminado</t>
+  </si>
+  <si>
+    <t>El usuario que hace la solicitud no es un Usuario Administrador</t>
+  </si>
+  <si>
+    <t>La función a cancelar no existe</t>
+  </si>
+  <si>
+    <t>Archivo</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento10\DatosSuccess.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento10\ResultSuccess.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento10\DatosFail.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento10\ResultFail.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento11\DatosSuccess.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento11\ResultSuccess.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento11\DatosFail.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento11\ResultFail.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento12\DatosFail.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento12\ResultFail.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento12\DatosSuccess.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento12\ResultSuccess.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento13\DatosSuccess.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento13\ResultSuccess.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento13\DatosFail.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento13\ResultFail.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento14\DatosSuccess.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento14\ResultSuccess.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento14\DatosFail.txt</t>
+  </si>
+  <si>
+    <t>\Escenarios de Prueba\Requerimiento14\ResultFail.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>rest/usuarios/registrados/2/CC/boletas/multi?fecha=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1491152400000</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;idLugar=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;idLocalidad=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;cant=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rest/usuarios/registrados/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{id_user}</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/boletas/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{id_boleta}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rest/festivales/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{id_festival}/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>espectaculos/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{id_espectaculo}/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>funciones/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{fecha}/{id_lugar}/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cancelar</t>
+    </r>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Archivos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,20 +483,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="9"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -70,25 +570,440 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99CC00"/>
+      <color rgb="FF800000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -363,42 +1278,700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.140625" customWidth="1"/>
+    <col min="1" max="2" width="13.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="107.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="2"/>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
+      <c r="B11" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="28"/>
+      <c r="C39" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="34"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="39"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="C50" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="C51" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="33"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="34"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="39"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="26"/>
+      <c r="C65" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="26"/>
+      <c r="C66" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="28"/>
+      <c r="C67" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="33"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="33"/>
+      <c r="B70" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="34"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="39"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="40"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="43" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C70" r:id="rId1"/>
+    <hyperlink ref="C71" r:id="rId2"/>
+    <hyperlink ref="C75" r:id="rId3"/>
+    <hyperlink ref="C76" r:id="rId4"/>
+    <hyperlink ref="C61" r:id="rId5"/>
+    <hyperlink ref="C60" r:id="rId6"/>
+    <hyperlink ref="C56" r:id="rId7"/>
+    <hyperlink ref="C55" r:id="rId8"/>
+    <hyperlink ref="C46" r:id="rId9"/>
+    <hyperlink ref="C45" r:id="rId10"/>
+    <hyperlink ref="C42" r:id="rId11"/>
+    <hyperlink ref="C41" r:id="rId12"/>
+    <hyperlink ref="C33" r:id="rId13"/>
+    <hyperlink ref="C32" r:id="rId14"/>
+    <hyperlink ref="C26" r:id="rId15"/>
+    <hyperlink ref="C25" r:id="rId16"/>
+    <hyperlink ref="C15" r:id="rId17"/>
+    <hyperlink ref="C14" r:id="rId18"/>
+    <hyperlink ref="C10" r:id="rId19"/>
+    <hyperlink ref="C9" r:id="rId20"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>